--- a/Test Case - 1/TC1Results_B.xlsx
+++ b/Test Case - 1/TC1Results_B.xlsx
@@ -830,7 +830,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -848,6 +868,76 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1235,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,14 +1465,6 @@
       <c r="O3" t="b">
         <v>1</v>
       </c>
-      <c r="S3" t="e">
-        <f>0.9*((R3-D3)^0.51)*((SQRT((P3-B3)^2+(Q3-C3)^2)^(-0.35)))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T3" t="e">
-        <f>IF(M3=0,TRUE,OR(AND(S3&lt;(M3*1.03),S3&gt;(M3*0.97)),O3))</f>
-        <v>#NUM!</v>
-      </c>
       <c r="V3">
         <f>IF(K3=TRUE,1,0)</f>
         <v>1</v>
@@ -1443,16 +1525,8 @@
       <c r="R4">
         <v>20.152000000000001</v>
       </c>
-      <c r="S4">
-        <f t="shared" ref="S4:S23" si="0">0.9*((R4-D4)^0.51)*((SQRT((P4-B4)^2+(Q4-C4)^2)^(-0.35)))</f>
-        <v>1.0214234395596546</v>
-      </c>
-      <c r="T4" t="b">
-        <f t="shared" ref="T4:T23" si="1">IF(M4=0,TRUE,OR(AND(S4&lt;(M4*1.03),S4&gt;(M4*0.97)),O4))</f>
-        <v>1</v>
-      </c>
       <c r="V4">
-        <f t="shared" ref="V4:V53" si="2">IF(K4=TRUE,1,0)</f>
+        <f t="shared" ref="V4:V53" si="0">IF(K4=TRUE,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -1511,16 +1585,8 @@
       <c r="R5">
         <v>20.152000000000001</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>1.0211781152081296</v>
-      </c>
-      <c r="T5" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="V5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1580,15 +1646,15 @@
         <v>20.152000000000001</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="S4:S23" si="1">0.9*((R6-D6)^0.51)*((SQRT((P6-B6)^2+(Q6-C6)^2)^(-0.35)))</f>
         <v>1.6044811859611072</v>
       </c>
       <c r="T6" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T4:T23" si="2">IF(M6=0,TRUE,OR(AND(S6&lt;(M6*1.03),S6&gt;(M6*0.97)),O6))</f>
         <v>1</v>
       </c>
       <c r="V6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1647,16 +1713,8 @@
       <c r="R7">
         <v>20.152000000000001</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>1.6596977981112069</v>
-      </c>
-      <c r="T7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="V7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1716,15 +1774,15 @@
         <v>30.152000000000001</v>
       </c>
       <c r="S8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8572810214170183</v>
       </c>
       <c r="T8" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1784,15 +1842,15 @@
         <v>30.152000000000001</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3300018437466941</v>
       </c>
       <c r="T9" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1851,16 +1909,8 @@
       <c r="R10">
         <v>30.152000000000001</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>1.3017612596028523</v>
-      </c>
-      <c r="T10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="V10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1919,16 +1969,8 @@
       <c r="R11">
         <v>30.152000000000001</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="0"/>
-        <v>1.3100375076613813</v>
-      </c>
-      <c r="T11" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="V11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1987,16 +2029,8 @@
       <c r="R12">
         <v>30.152000000000001</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="0"/>
-        <v>1.1693623831592181</v>
-      </c>
-      <c r="T12" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="V12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2055,16 +2089,8 @@
       <c r="R13">
         <v>30.152000000000001</v>
       </c>
-      <c r="S13">
-        <f t="shared" si="0"/>
-        <v>1.1693700515158973</v>
-      </c>
-      <c r="T13" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="V13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2123,16 +2149,8 @@
       <c r="R14">
         <v>30.152000000000001</v>
       </c>
-      <c r="S14">
-        <f t="shared" si="0"/>
-        <v>1.2285568778866769</v>
-      </c>
-      <c r="T14" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="V14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2192,15 +2210,15 @@
         <v>30.152000000000001</v>
       </c>
       <c r="S15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2817510033089079</v>
       </c>
       <c r="T15" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2259,16 +2277,8 @@
       <c r="R16">
         <v>30.152000000000001</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="0"/>
-        <v>1.3107091227591259</v>
-      </c>
-      <c r="T16" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="V16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2327,16 +2337,8 @@
       <c r="R17">
         <v>30.152000000000001</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="0"/>
-        <v>1.3008956092694441</v>
-      </c>
-      <c r="T17" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="V17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2396,15 +2398,15 @@
         <v>30.152000000000001</v>
       </c>
       <c r="S18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5084318657314502</v>
       </c>
       <c r="T18" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2463,16 +2465,8 @@
       <c r="R19">
         <v>30.152000000000001</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="0"/>
-        <v>1.3016662910134993</v>
-      </c>
-      <c r="T19" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="V19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2531,16 +2525,8 @@
       <c r="R20">
         <v>30.152000000000001</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="0"/>
-        <v>1.3100662617195269</v>
-      </c>
-      <c r="T20" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="V20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2599,16 +2585,8 @@
       <c r="R21">
         <v>30.152000000000001</v>
       </c>
-      <c r="S21">
-        <f t="shared" si="0"/>
-        <v>1.1524324040824301</v>
-      </c>
-      <c r="T21" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="V21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2667,16 +2645,8 @@
       <c r="R22">
         <v>30.152000000000001</v>
       </c>
-      <c r="S22">
-        <f t="shared" si="0"/>
-        <v>1.3100662617195269</v>
-      </c>
-      <c r="T22" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="V22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2735,16 +2705,8 @@
       <c r="R23">
         <v>30.152000000000001</v>
       </c>
-      <c r="S23">
-        <f t="shared" si="0"/>
-        <v>1.3011674305281238</v>
-      </c>
-      <c r="T23" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="V23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2812,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="V24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2871,16 +2833,8 @@
       <c r="R25">
         <v>30.152000000000001</v>
       </c>
-      <c r="S25">
-        <f t="shared" si="3"/>
-        <v>1.3004407781547296</v>
-      </c>
-      <c r="T25" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="V25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2939,16 +2893,8 @@
       <c r="R26">
         <v>30.152000000000001</v>
       </c>
-      <c r="S26">
-        <f t="shared" si="3"/>
-        <v>1.1523718606121613</v>
-      </c>
-      <c r="T26" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="V26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3007,16 +2953,8 @@
       <c r="R27">
         <v>30.152000000000001</v>
       </c>
-      <c r="S27">
-        <f t="shared" si="3"/>
-        <v>1.3100310682100755</v>
-      </c>
-      <c r="T27" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="V27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3075,16 +3013,8 @@
       <c r="R28">
         <v>30.152000000000001</v>
       </c>
-      <c r="S28">
-        <f t="shared" si="3"/>
-        <v>1.3011234156165259</v>
-      </c>
-      <c r="T28" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="V28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3143,16 +3073,8 @@
       <c r="R29">
         <v>30.152000000000001</v>
       </c>
-      <c r="S29">
-        <f t="shared" si="3"/>
-        <v>1.6595797676713377</v>
-      </c>
-      <c r="T29" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="V29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3199,16 +3121,8 @@
       <c r="O30" t="b">
         <v>1</v>
       </c>
-      <c r="S30" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T30" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3255,16 +3169,8 @@
       <c r="O31" t="b">
         <v>1</v>
       </c>
-      <c r="S31" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T31" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3311,16 +3217,8 @@
       <c r="O32" t="b">
         <v>1</v>
       </c>
-      <c r="S32" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T32" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3367,16 +3265,8 @@
       <c r="O33" t="b">
         <v>1</v>
       </c>
-      <c r="S33" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T33" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3423,16 +3313,8 @@
       <c r="O34" t="b">
         <v>1</v>
       </c>
-      <c r="S34" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T34" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3479,16 +3361,8 @@
       <c r="O35" t="b">
         <v>1</v>
       </c>
-      <c r="S35" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T35" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3535,16 +3409,8 @@
       <c r="O36" t="b">
         <v>1</v>
       </c>
-      <c r="S36" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T36" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3591,16 +3457,8 @@
       <c r="O37" t="b">
         <v>1</v>
       </c>
-      <c r="S37" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T37" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3647,16 +3505,8 @@
       <c r="O38" t="b">
         <v>1</v>
       </c>
-      <c r="S38" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T38" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3703,16 +3553,8 @@
       <c r="O39" t="b">
         <v>1</v>
       </c>
-      <c r="S39" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T39" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3759,16 +3601,8 @@
       <c r="O40" t="b">
         <v>1</v>
       </c>
-      <c r="S40" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T40" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3815,16 +3649,8 @@
       <c r="O41" t="b">
         <v>1</v>
       </c>
-      <c r="S41" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T41" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3871,16 +3697,8 @@
       <c r="O42" t="b">
         <v>1</v>
       </c>
-      <c r="S42" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T42" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3927,16 +3745,8 @@
       <c r="O43" t="b">
         <v>1</v>
       </c>
-      <c r="S43" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T43" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3983,16 +3793,8 @@
       <c r="O44" t="b">
         <v>1</v>
       </c>
-      <c r="S44" t="e">
-        <f t="shared" ref="S44:S53" si="5">0.9*((R44-D44)^0.51)*((SQRT((P44-B44)^2+(Q44-C44)^2)^(-0.35)))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T44" t="e">
-        <f t="shared" ref="T44:T53" si="6">IF(M44=0,TRUE,OR(AND(S44&lt;(M44*1.03),S44&gt;(M44*0.97)),O44))</f>
-        <v>#NUM!</v>
-      </c>
       <c r="V44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4039,16 +3841,8 @@
       <c r="O45" t="b">
         <v>1</v>
       </c>
-      <c r="S45" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T45" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4095,16 +3889,8 @@
       <c r="O46" t="b">
         <v>1</v>
       </c>
-      <c r="S46" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T46" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4151,16 +3937,8 @@
       <c r="O47" t="b">
         <v>1</v>
       </c>
-      <c r="S47" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T47" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4207,16 +3985,8 @@
       <c r="O48" t="b">
         <v>1</v>
       </c>
-      <c r="S48" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T48" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4263,16 +4033,8 @@
       <c r="O49" t="b">
         <v>1</v>
       </c>
-      <c r="S49" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T49" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4319,16 +4081,8 @@
       <c r="O50" t="b">
         <v>1</v>
       </c>
-      <c r="S50" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T50" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4375,16 +4129,8 @@
       <c r="O51" t="b">
         <v>1</v>
       </c>
-      <c r="S51" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T51" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4431,16 +4177,8 @@
       <c r="O52" t="b">
         <v>1</v>
       </c>
-      <c r="S52" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T52" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4487,16 +4225,8 @@
       <c r="O53" t="b">
         <v>1</v>
       </c>
-      <c r="S53" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T53" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="V53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4593,11 +4323,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -4608,13 +4333,28 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="K58 O58 T58 K3:K53 O3:O53 T3:T53">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  <conditionalFormatting sqref="K58 O58 T58 K3:K53 O3:O53">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K53">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O53">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T53">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/Test Case - 1/TC1Results_B.xlsx
+++ b/Test Case - 1/TC1Results_B.xlsx
@@ -24,7 +24,7 @@
     <author>e1176752</author>
   </authors>
   <commentList>
-    <comment ref="J50" authorId="0" shapeId="0">
+    <comment ref="J46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>d28da70a-3703-47cd-9ee6-75fe92216937</t>
   </si>
@@ -73,31 +73,19 @@
     <t>a21a66ae-15c0-4ffd-affd-aebcd7411212</t>
   </si>
   <si>
-    <t>b3f42950-defa-496b-bc16-cebbab777ad0</t>
-  </si>
-  <si>
     <t>e3af92cb-e559-4e5c-be26-4d11c387bffe</t>
   </si>
   <si>
     <t>7e622dce-1a37-4fe7-b293-479091819bf9</t>
   </si>
   <si>
-    <t>d8b489fa-ee7d-4e06-bec5-d0abad552001</t>
-  </si>
-  <si>
     <t>59d95149-b6bc-4ed0-bb2d-d2679fee8b21</t>
   </si>
   <si>
     <t>b07eaf08-c35e-4d47-a6f2-198c9dcbd159</t>
   </si>
   <si>
-    <t>476b22f3-9cf8-4009-8b86-f0279e0cfd10</t>
-  </si>
-  <si>
     <t>c0c06a2f-9cdf-47a0-9899-46a1ee814632</t>
-  </si>
-  <si>
-    <t>6d26751c-eaf9-43a9-aa88-fffa022af40b</t>
   </si>
   <si>
     <t>70117144-faa4-4159-882e-609b7a604f78</t>
@@ -777,13 +765,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -830,107 +818,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -970,13 +858,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>213880</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>44543</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>32975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1008,13 +896,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>231322</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1323,101 +1211,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7" t="s">
+      <c r="O1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="R2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="6"/>
+      <c r="T2" s="8"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1526,7 +1414,7 @@
         <v>20.152000000000001</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V53" si="0">IF(K4=TRUE,1,0)</f>
+        <f t="shared" ref="V4:V49" si="0">IF(K4=TRUE,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -1646,11 +1534,11 @@
         <v>20.152000000000001</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S4:S23" si="1">0.9*((R6-D6)^0.51)*((SQRT((P6-B6)^2+(Q6-C6)^2)^(-0.35)))</f>
+        <f t="shared" ref="S6:S14" si="1">0.9*((R6-D6)^0.51)*((SQRT((P6-B6)^2+(Q6-C6)^2)^(-0.35)))</f>
         <v>1.6044811859611072</v>
       </c>
       <c r="T6" t="b">
-        <f t="shared" ref="T4:T23" si="2">IF(M6=0,TRUE,OR(AND(S6&lt;(M6*1.03),S6&gt;(M6*0.97)),O6))</f>
+        <f t="shared" ref="T6:T14" si="2">IF(M6=0,TRUE,OR(AND(S6&lt;(M6*1.03),S6&gt;(M6*0.97)),O6))</f>
         <v>1</v>
       </c>
       <c r="V6">
@@ -1791,13 +1679,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C9">
-        <v>40.4</v>
+        <v>40.015000000000001</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>20.152000000000001</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1815,22 +1703,22 @@
         <v>5.6224755960000001</v>
       </c>
       <c r="J9">
-        <v>3.2562386877196698</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
+        <v>5.6223030620111398</v>
+      </c>
+      <c r="K9" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="L9">
         <v>26</v>
       </c>
       <c r="M9">
-        <v>1.3300018437466901</v>
+        <v>1.3017612596028501</v>
       </c>
       <c r="N9">
         <v>1.3008957940000001</v>
       </c>
       <c r="O9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>-2E-3</v>
@@ -1841,34 +1729,26 @@
       <c r="R9">
         <v>30.152000000000001</v>
       </c>
-      <c r="S9">
-        <f t="shared" si="1"/>
-        <v>1.3300018437466941</v>
-      </c>
-      <c r="T9" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1.6E-2</v>
+        <v>10.7</v>
       </c>
       <c r="C10">
-        <v>40.015000000000001</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>20.152000000000001</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>40</v>
@@ -1876,23 +1756,23 @@
       <c r="G10">
         <v>20</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I10">
-        <v>5.6224755960000001</v>
+        <v>5.203719617</v>
       </c>
       <c r="J10">
-        <v>5.6223030620111398</v>
+        <v>5.2035485469079603</v>
       </c>
       <c r="K10" s="3" t="b">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>1.3017612596028501</v>
+        <v>1.3100375076613799</v>
       </c>
       <c r="N10">
         <v>1.3008957940000001</v>
@@ -1901,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>-2E-3</v>
+        <v>9.9960000000000004</v>
       </c>
       <c r="Q10">
-        <v>49.996000000000002</v>
+        <v>49.994999999999997</v>
       </c>
       <c r="R10">
         <v>30.152000000000001</v>
@@ -1916,10 +1796,10 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>10.7</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C11">
         <v>40</v>
@@ -1928,7 +1808,7 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11">
         <v>40</v>
@@ -1936,26 +1816,26 @@
       <c r="G11">
         <v>20</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>8</v>
       </c>
       <c r="I11">
-        <v>5.203719617</v>
+        <v>6.5412467589999999</v>
       </c>
       <c r="J11">
         <v>5.2035485469079603</v>
       </c>
-      <c r="K11" s="3" t="b">
-        <v>1</v>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
       <c r="L11">
         <v>28</v>
       </c>
       <c r="M11">
-        <v>1.3100375076613799</v>
+        <v>1.16937005151589</v>
       </c>
       <c r="N11">
-        <v>1.3008957940000001</v>
+        <v>1.15229124</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -1971,18 +1851,18 @@
       </c>
       <c r="V11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
       <c r="C12">
-        <v>40.4</v>
+        <v>43.3</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -1991,7 +1871,7 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G12">
         <v>20</v>
@@ -2000,22 +1880,22 @@
         <v>9</v>
       </c>
       <c r="I12">
-        <v>6.5412467589999999</v>
+        <v>5.203719617</v>
       </c>
       <c r="J12">
         <v>5.2035485469079603</v>
       </c>
-      <c r="K12" t="b">
-        <v>0</v>
+      <c r="K12" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="L12">
         <v>28</v>
       </c>
       <c r="M12">
-        <v>1.1693623831592099</v>
+        <v>1.22855687788667</v>
       </c>
       <c r="N12">
-        <v>1.15229124</v>
+        <v>1.2510747449999999</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -2031,18 +1911,18 @@
       </c>
       <c r="V12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>19.600000000000001</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>55.2</v>
       </c>
       <c r="D13">
         <v>20</v>
@@ -2051,7 +1931,7 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G13">
         <v>20</v>
@@ -2060,58 +1940,58 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>6.5412467589999999</v>
+        <v>5.203719617</v>
       </c>
       <c r="J13">
         <v>5.2035485469079603</v>
       </c>
-      <c r="K13" t="b">
-        <v>0</v>
+      <c r="K13" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>1.16937005151589</v>
+        <v>1.3107091227591201</v>
       </c>
       <c r="N13">
-        <v>1.15229124</v>
+        <v>1.3008957940000001</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
       </c>
       <c r="P13">
-        <v>9.9960000000000004</v>
+        <v>9.9969999999999999</v>
       </c>
       <c r="Q13">
-        <v>49.994999999999997</v>
+        <v>54.994999999999997</v>
       </c>
       <c r="R13">
         <v>30.152000000000001</v>
       </c>
       <c r="V13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>43.3</v>
       </c>
       <c r="C14">
-        <v>43.3</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F14">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -2120,35 +2000,43 @@
         <v>11</v>
       </c>
       <c r="I14">
-        <v>5.203719617</v>
+        <v>3.2563229050000002</v>
       </c>
       <c r="J14">
-        <v>5.2035485469079603</v>
+        <v>3.2562386877196698</v>
       </c>
       <c r="K14" s="3" t="b">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>1.22855687788667</v>
+        <v>1.5084318657314499</v>
       </c>
       <c r="N14">
-        <v>1.2510747449999999</v>
+        <v>1.658070559</v>
       </c>
       <c r="O14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>9.9960000000000004</v>
+        <v>49.997</v>
       </c>
       <c r="Q14">
-        <v>49.994999999999997</v>
+        <v>59.996000000000002</v>
       </c>
       <c r="R14">
         <v>30.152000000000001</v>
       </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>1.5084318657314502</v>
+      </c>
+      <c r="T14" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="V14">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2156,67 +2044,59 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>40.014000000000003</v>
       </c>
       <c r="C15">
-        <v>46.3</v>
+        <v>60.04</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>20.152000000000001</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G15">
         <v>20</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I15">
-        <v>5.203719617</v>
+        <v>5.6224755960000001</v>
       </c>
       <c r="J15">
-        <v>5.2035485469079603</v>
-      </c>
-      <c r="K15" t="b">
+        <v>5.6223030620111398</v>
+      </c>
+      <c r="K15" s="3" t="b">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>1.2817510033088999</v>
+        <v>1.30166629101349</v>
       </c>
       <c r="N15">
-        <v>1.2510747449999999</v>
+        <v>1.3008957940000001</v>
       </c>
       <c r="O15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>9.9960000000000004</v>
+        <v>49.997</v>
       </c>
       <c r="Q15">
-        <v>49.994999999999997</v>
+        <v>59.996000000000002</v>
       </c>
       <c r="R15">
         <v>30.152000000000001</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="1"/>
-        <v>1.2817510033089079</v>
-      </c>
-      <c r="T15" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="V15">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2224,22 +2104,22 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>55.2</v>
+        <v>49.3</v>
       </c>
       <c r="D16">
         <v>20</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>20</v>
@@ -2251,16 +2131,16 @@
         <v>5.203719617</v>
       </c>
       <c r="J16">
-        <v>5.2035485469079603</v>
-      </c>
-      <c r="K16" s="3" t="b">
+        <v>5.2024951675972604</v>
+      </c>
+      <c r="K16" t="b">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>1.3107091227591201</v>
+        <v>1.31006626171952</v>
       </c>
       <c r="N16">
         <v>1.3008957940000001</v>
@@ -2269,10 +2149,10 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>9.9969999999999999</v>
+        <v>49.994999999999997</v>
       </c>
       <c r="Q16">
-        <v>54.994999999999997</v>
+        <v>49.994999999999997</v>
       </c>
       <c r="R16">
         <v>30.152000000000001</v>
@@ -2284,22 +2164,22 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>19.997</v>
+        <v>40.002000000000002</v>
       </c>
       <c r="C17">
-        <v>55.003999999999998</v>
+        <v>39.994999999999997</v>
       </c>
       <c r="D17">
         <v>20.152000000000001</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>20</v>
@@ -2308,31 +2188,31 @@
         <v>14</v>
       </c>
       <c r="I17">
-        <v>5.203719617</v>
+        <v>6.5412467589999999</v>
       </c>
       <c r="J17">
-        <v>5.20223653185655</v>
-      </c>
-      <c r="K17" t="b">
+        <v>6.5378274237832903</v>
+      </c>
+      <c r="K17" s="3" t="b">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>1.3008956092694399</v>
+        <v>1.1524324040824201</v>
       </c>
       <c r="N17">
-        <v>1.3008957940000001</v>
+        <v>1.15229124</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
       </c>
       <c r="P17">
-        <v>9.9969999999999999</v>
+        <v>49.994999999999997</v>
       </c>
       <c r="Q17">
-        <v>54.994999999999997</v>
+        <v>49.994999999999997</v>
       </c>
       <c r="R17">
         <v>30.152000000000001</v>
@@ -2344,22 +2224,22 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>43.3</v>
+        <v>49.3</v>
       </c>
       <c r="C18">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F18">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G18">
         <v>20</v>
@@ -2368,43 +2248,35 @@
         <v>15</v>
       </c>
       <c r="I18">
-        <v>3.2563229050000002</v>
+        <v>5.203719617</v>
       </c>
       <c r="J18">
-        <v>3.2562386877196698</v>
+        <v>5.2024951675972604</v>
       </c>
       <c r="K18" s="3" t="b">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>1.5084318657314499</v>
+        <v>1.31006626171952</v>
       </c>
       <c r="N18">
-        <v>1.658070559</v>
+        <v>1.3008957940000001</v>
       </c>
       <c r="O18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>49.997</v>
+        <v>49.994999999999997</v>
       </c>
       <c r="Q18">
-        <v>59.996000000000002</v>
+        <v>49.994999999999997</v>
       </c>
       <c r="R18">
         <v>30.152000000000001</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="1"/>
-        <v>1.5084318657314502</v>
-      </c>
-      <c r="T18" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="V18">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2412,27 +2284,27 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>40.014000000000003</v>
+        <v>60.024000000000001</v>
       </c>
       <c r="C19">
-        <v>60.04</v>
+        <v>40.000999999999998</v>
       </c>
       <c r="D19">
         <v>20.152000000000001</v>
       </c>
       <c r="E19">
+        <v>60</v>
+      </c>
+      <c r="F19">
         <v>40</v>
-      </c>
-      <c r="F19">
-        <v>60</v>
       </c>
       <c r="G19">
         <v>20</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>16</v>
       </c>
       <c r="I19">
@@ -2445,10 +2317,10 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>1.30166629101349</v>
+        <v>1.30116743052812</v>
       </c>
       <c r="N19">
         <v>1.3008957940000001</v>
@@ -2457,10 +2329,10 @@
         <v>1</v>
       </c>
       <c r="P19">
-        <v>49.997</v>
+        <v>59.997</v>
       </c>
       <c r="Q19">
-        <v>59.996000000000002</v>
+        <v>49.994999999999997</v>
       </c>
       <c r="R19">
         <v>30.152000000000001</v>
@@ -2472,22 +2344,22 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C20">
-        <v>49.3</v>
+        <v>43.3</v>
       </c>
       <c r="D20">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G20">
         <v>20</v>
@@ -2496,28 +2368,28 @@
         <v>17</v>
       </c>
       <c r="I20">
-        <v>5.203719617</v>
+        <v>3.2563229050000002</v>
       </c>
       <c r="J20">
-        <v>5.2024951675972604</v>
-      </c>
-      <c r="K20" t="b">
+        <v>3.2562386877196698</v>
+      </c>
+      <c r="K20" s="3" t="b">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>1.31006626171952</v>
+        <v>1.5085896066517499</v>
       </c>
       <c r="N20">
-        <v>1.3008957940000001</v>
+        <v>1.658070559</v>
       </c>
       <c r="O20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>49.994999999999997</v>
+        <v>59.997</v>
       </c>
       <c r="Q20">
         <v>49.994999999999997</v>
@@ -2525,6 +2397,14 @@
       <c r="R20">
         <v>30.152000000000001</v>
       </c>
+      <c r="S20">
+        <f t="shared" ref="S20" si="3">0.9*((R20-D20)^0.51)*((SQRT((P20-B20)^2+(Q20-C20)^2)^(-0.35)))</f>
+        <v>1.508589606651751</v>
+      </c>
+      <c r="T20" t="b">
+        <f t="shared" ref="T20" si="4">IF(M20=0,TRUE,OR(AND(S20&lt;(M20*1.03),S20&gt;(M20*0.97)),O20))</f>
+        <v>1</v>
+      </c>
       <c r="V20">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2532,22 +2412,22 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>40.002000000000002</v>
+        <v>49.997</v>
       </c>
       <c r="C21">
-        <v>39.994999999999997</v>
+        <v>20.004000000000001</v>
       </c>
       <c r="D21">
         <v>20.152000000000001</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -2556,22 +2436,22 @@
         <v>18</v>
       </c>
       <c r="I21">
-        <v>6.5412467589999999</v>
+        <v>5.203719617</v>
       </c>
       <c r="J21">
-        <v>6.5378274237832903</v>
-      </c>
-      <c r="K21" s="3" t="b">
+        <v>5.20223653185655</v>
+      </c>
+      <c r="K21" t="b">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>1.1524324040824201</v>
+        <v>1.30044077815472</v>
       </c>
       <c r="N21">
-        <v>1.15229124</v>
+        <v>1.3008957940000001</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
@@ -2580,7 +2460,7 @@
         <v>49.994999999999997</v>
       </c>
       <c r="Q21">
-        <v>49.994999999999997</v>
+        <v>9.9939999999999998</v>
       </c>
       <c r="R21">
         <v>30.152000000000001</v>
@@ -2592,22 +2472,22 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>49.3</v>
+        <v>40.002000000000002</v>
       </c>
       <c r="C22">
+        <v>19.997</v>
+      </c>
+      <c r="D22">
+        <v>20.152000000000001</v>
+      </c>
+      <c r="E22">
         <v>40</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>20</v>
-      </c>
-      <c r="E22">
-        <v>50</v>
-      </c>
-      <c r="F22">
-        <v>40</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -2616,22 +2496,22 @@
         <v>19</v>
       </c>
       <c r="I22">
-        <v>5.203719617</v>
+        <v>6.5412467589999999</v>
       </c>
       <c r="J22">
-        <v>5.2024951675972604</v>
+        <v>6.5393824724141103</v>
       </c>
       <c r="K22" s="3" t="b">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>1.31006626171952</v>
+        <v>1.15237186061216</v>
       </c>
       <c r="N22">
-        <v>1.3008957940000001</v>
+        <v>1.15229124</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -2640,7 +2520,7 @@
         <v>49.994999999999997</v>
       </c>
       <c r="Q22">
-        <v>49.994999999999997</v>
+        <v>9.9939999999999998</v>
       </c>
       <c r="R22">
         <v>30.152000000000001</v>
@@ -2652,22 +2532,22 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>60.024000000000001</v>
+        <v>40</v>
       </c>
       <c r="C23">
-        <v>40.000999999999998</v>
+        <v>10.7</v>
       </c>
       <c r="D23">
-        <v>20.152000000000001</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G23">
         <v>20</v>
@@ -2676,19 +2556,19 @@
         <v>20</v>
       </c>
       <c r="I23">
-        <v>5.6224755960000001</v>
+        <v>5.203719617</v>
       </c>
       <c r="J23">
-        <v>5.6223030620111398</v>
+        <v>5.2035485469079603</v>
       </c>
       <c r="K23" s="3" t="b">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>1.30116743052812</v>
+        <v>1.31003106821007</v>
       </c>
       <c r="N23">
         <v>1.3008957940000001</v>
@@ -2697,10 +2577,10 @@
         <v>1</v>
       </c>
       <c r="P23">
-        <v>59.997</v>
+        <v>49.994999999999997</v>
       </c>
       <c r="Q23">
-        <v>49.994999999999997</v>
+        <v>9.9939999999999998</v>
       </c>
       <c r="R23">
         <v>30.152000000000001</v>
@@ -2712,22 +2592,22 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>40.000999999999998</v>
       </c>
       <c r="C24">
-        <v>43.3</v>
+        <v>2E-3</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>20.152000000000001</v>
       </c>
       <c r="E24">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>20</v>
@@ -2736,43 +2616,35 @@
         <v>21</v>
       </c>
       <c r="I24">
-        <v>3.2563229050000002</v>
+        <v>5.6224755960000001</v>
       </c>
       <c r="J24">
-        <v>3.2562386877196698</v>
+        <v>5.6223030620111398</v>
       </c>
       <c r="K24" s="3" t="b">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>1.5085896066517499</v>
+        <v>1.3011234156165199</v>
       </c>
       <c r="N24">
-        <v>1.658070559</v>
+        <v>1.3008957940000001</v>
       </c>
       <c r="O24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>59.997</v>
+        <v>49.996000000000002</v>
       </c>
       <c r="Q24">
-        <v>49.994999999999997</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="R24">
         <v>30.152000000000001</v>
       </c>
-      <c r="S24">
-        <f t="shared" ref="S24:S43" si="3">0.9*((R24-D24)^0.51)*((SQRT((P24-B24)^2+(Q24-C24)^2)^(-0.35)))</f>
-        <v>1.508589606651751</v>
-      </c>
-      <c r="T24" t="b">
-        <f t="shared" ref="T24:T43" si="4">IF(M24=0,TRUE,OR(AND(S24&lt;(M24*1.03),S24&gt;(M24*0.97)),O24))</f>
-        <v>1</v>
-      </c>
       <c r="V24">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2780,22 +2652,22 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>49.997</v>
+        <v>45.009</v>
       </c>
       <c r="C25">
-        <v>20.004000000000001</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D25">
         <v>20.152000000000001</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>20</v>
@@ -2804,31 +2676,31 @@
         <v>22</v>
       </c>
       <c r="I25">
-        <v>5.203719617</v>
+        <v>3.2563229050000002</v>
       </c>
       <c r="J25">
-        <v>5.20223653185655</v>
+        <v>3.2562386877196698</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>1.30044077815472</v>
+        <v>1.65957976767133</v>
       </c>
       <c r="N25">
-        <v>1.3008957940000001</v>
+        <v>1.658070559</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
       </c>
       <c r="P25">
-        <v>49.994999999999997</v>
+        <v>49.996000000000002</v>
       </c>
       <c r="Q25">
-        <v>9.9939999999999998</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="R25">
         <v>30.152000000000001</v>
@@ -2840,58 +2712,46 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>40.002000000000002</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="C26">
-        <v>19.997</v>
+        <v>59.994999999999997</v>
       </c>
       <c r="D26">
-        <v>20.152000000000001</v>
+        <v>30.152000000000001</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G26">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
         <v>23</v>
       </c>
       <c r="I26">
-        <v>6.5412467589999999</v>
+        <v>7.393631976</v>
       </c>
       <c r="J26">
-        <v>6.5393824724141103</v>
+        <v>7.3933932381221501</v>
       </c>
       <c r="K26" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="L26">
-        <v>40</v>
-      </c>
       <c r="M26">
-        <v>1.15237186061216</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>1.15229124</v>
+        <v>1</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
-      </c>
-      <c r="P26">
-        <v>49.994999999999997</v>
-      </c>
-      <c r="Q26">
-        <v>9.9939999999999998</v>
-      </c>
-      <c r="R26">
-        <v>30.152000000000001</v>
       </c>
       <c r="V26">
         <f t="shared" si="0"/>
@@ -2900,58 +2760,46 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C27">
-        <v>10.7</v>
+        <v>54.996000000000002</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>30.152000000000001</v>
       </c>
       <c r="E27">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G27">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
         <v>24</v>
       </c>
       <c r="I27">
-        <v>5.203719617</v>
+        <v>3.813163002</v>
       </c>
       <c r="J27">
-        <v>5.2035485469079603</v>
+        <v>3.8130579721003599</v>
       </c>
       <c r="K27" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="L27">
-        <v>40</v>
-      </c>
       <c r="M27">
-        <v>1.31003106821007</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>1.3008957940000001</v>
+        <v>1</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
-      </c>
-      <c r="P27">
-        <v>49.994999999999997</v>
-      </c>
-      <c r="Q27">
-        <v>9.9939999999999998</v>
-      </c>
-      <c r="R27">
-        <v>30.152000000000001</v>
       </c>
       <c r="V27">
         <f t="shared" si="0"/>
@@ -2960,58 +2808,46 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>40.000999999999998</v>
+        <v>-2E-3</v>
       </c>
       <c r="C28">
-        <v>2E-3</v>
+        <v>49.996000000000002</v>
       </c>
       <c r="D28">
-        <v>20.152000000000001</v>
+        <v>30.152000000000001</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G28">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
         <v>25</v>
       </c>
       <c r="I28">
-        <v>5.6224755960000001</v>
+        <v>7.393631976</v>
       </c>
       <c r="J28">
-        <v>5.6223030620111398</v>
+        <v>7.3933932381221501</v>
       </c>
       <c r="K28" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="L28">
-        <v>42</v>
-      </c>
       <c r="M28">
-        <v>1.3011234156165199</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>1.3008957940000001</v>
+        <v>1</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
-      </c>
-      <c r="P28">
-        <v>49.996000000000002</v>
-      </c>
-      <c r="Q28">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="R28">
-        <v>30.152000000000001</v>
       </c>
       <c r="V28">
         <f t="shared" si="0"/>
@@ -3020,58 +2856,46 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>45.009</v>
+        <v>4.8</v>
       </c>
       <c r="C29">
-        <v>8.9999999999999993E-3</v>
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>20.152000000000001</v>
+        <v>30</v>
       </c>
       <c r="E29">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
         <v>26</v>
       </c>
       <c r="I29">
-        <v>3.2563229050000002</v>
+        <v>7.1035505069999996</v>
       </c>
       <c r="J29">
-        <v>3.2562386877196698</v>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>42</v>
+        <v>7.1030053222300298</v>
+      </c>
+      <c r="K29" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>1.65957976767133</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>1.658070559</v>
+        <v>1</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
-      </c>
-      <c r="P29">
-        <v>49.996000000000002</v>
-      </c>
-      <c r="Q29">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="R29">
-        <v>30.152000000000001</v>
       </c>
       <c r="V29">
         <f t="shared" si="0"/>
@@ -3080,22 +2904,22 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>-5.0000000000000001E-3</v>
+        <v>9.9960000000000004</v>
       </c>
       <c r="C30">
-        <v>59.994999999999997</v>
+        <v>49.994999999999997</v>
       </c>
       <c r="D30">
         <v>30.152000000000001</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F30">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>30</v>
@@ -3104,10 +2928,10 @@
         <v>27</v>
       </c>
       <c r="I30">
-        <v>7.393631976</v>
+        <v>10.88167612</v>
       </c>
       <c r="J30">
-        <v>7.3933932381221501</v>
+        <v>10.877507196584199</v>
       </c>
       <c r="K30" s="3" t="b">
         <v>1</v>
@@ -3128,19 +2952,19 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>-4.0000000000000001E-3</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>54.996000000000002</v>
+        <v>55.2</v>
       </c>
       <c r="D31">
-        <v>30.152000000000001</v>
+        <v>30</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <v>55</v>
@@ -3148,14 +2972,14 @@
       <c r="G31">
         <v>30</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I31">
-        <v>3.813163002</v>
+        <v>7.1035505069999996</v>
       </c>
       <c r="J31">
-        <v>3.8130579721003599</v>
+        <v>7.1030053222300298</v>
       </c>
       <c r="K31" s="3" t="b">
         <v>1</v>
@@ -3176,22 +3000,22 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>-2E-3</v>
+        <v>9.9949999999999992</v>
       </c>
       <c r="C32">
-        <v>49.996000000000002</v>
+        <v>59.997</v>
       </c>
       <c r="D32">
         <v>30.152000000000001</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G32">
         <v>30</v>
@@ -3224,13 +3048,13 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>4.8</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <v>30</v>
@@ -3239,7 +3063,7 @@
         <v>5</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G33">
         <v>30</v>
@@ -3248,10 +3072,10 @@
         <v>30</v>
       </c>
       <c r="I33">
-        <v>7.1035505069999996</v>
+        <v>3.813163002</v>
       </c>
       <c r="J33">
-        <v>7.1030053222300298</v>
+        <v>3.8130579721003599</v>
       </c>
       <c r="K33" s="3" t="b">
         <v>1</v>
@@ -3272,22 +3096,22 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>9.9960000000000004</v>
+        <v>49.997</v>
       </c>
       <c r="C34">
-        <v>49.994999999999997</v>
+        <v>59.996000000000002</v>
       </c>
       <c r="D34">
         <v>30.152000000000001</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F34">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G34">
         <v>30</v>
@@ -3296,10 +3120,10 @@
         <v>31</v>
       </c>
       <c r="I34">
-        <v>10.88167612</v>
+        <v>7.393631976</v>
       </c>
       <c r="J34">
-        <v>10.877507196584199</v>
+        <v>7.3933932381221501</v>
       </c>
       <c r="K34" s="3" t="b">
         <v>1</v>
@@ -3320,10 +3144,10 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>55.2</v>
@@ -3332,7 +3156,7 @@
         <v>30</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F35">
         <v>55</v>
@@ -3340,7 +3164,7 @@
       <c r="G35">
         <v>30</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" t="s">
         <v>32</v>
       </c>
       <c r="I35">
@@ -3349,7 +3173,7 @@
       <c r="J35">
         <v>7.1030053222300298</v>
       </c>
-      <c r="K35" s="3" t="b">
+      <c r="K35" t="b">
         <v>1</v>
       </c>
       <c r="M35">
@@ -3368,22 +3192,22 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>9.9949999999999992</v>
+        <v>49.994999999999997</v>
       </c>
       <c r="C36">
-        <v>59.997</v>
+        <v>49.994999999999997</v>
       </c>
       <c r="D36">
         <v>30.152000000000001</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F36">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G36">
         <v>30</v>
@@ -3392,10 +3216,10 @@
         <v>33</v>
       </c>
       <c r="I36">
-        <v>7.393631976</v>
+        <v>10.88167612</v>
       </c>
       <c r="J36">
-        <v>7.3933932381221501</v>
+        <v>10.877507196584199</v>
       </c>
       <c r="K36" s="3" t="b">
         <v>1</v>
@@ -3416,22 +3240,22 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>4.8</v>
+        <v>55.2</v>
       </c>
       <c r="C37">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D37">
         <v>30</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="F37">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G37">
         <v>30</v>
@@ -3440,10 +3264,10 @@
         <v>34</v>
       </c>
       <c r="I37">
-        <v>3.813163002</v>
+        <v>7.1035505069999996</v>
       </c>
       <c r="J37">
-        <v>3.8130579721003599</v>
+        <v>7.1030053222300298</v>
       </c>
       <c r="K37" s="3" t="b">
         <v>1</v>
@@ -3464,22 +3288,22 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>49.997</v>
+        <v>59.997</v>
       </c>
       <c r="C38">
-        <v>59.996000000000002</v>
+        <v>49.994999999999997</v>
       </c>
       <c r="D38">
         <v>30.152000000000001</v>
       </c>
       <c r="E38">
+        <v>60</v>
+      </c>
+      <c r="F38">
         <v>50</v>
-      </c>
-      <c r="F38">
-        <v>60</v>
       </c>
       <c r="G38">
         <v>30</v>
@@ -3512,10 +3336,10 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C39">
         <v>55.2</v>
@@ -3524,7 +3348,7 @@
         <v>30</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F39">
         <v>55</v>
@@ -3536,12 +3360,12 @@
         <v>36</v>
       </c>
       <c r="I39">
-        <v>7.1035505069999996</v>
+        <v>3.813163002</v>
       </c>
       <c r="J39">
-        <v>7.1030053222300298</v>
-      </c>
-      <c r="K39" t="b">
+        <v>3.8130579721003599</v>
+      </c>
+      <c r="K39" s="3" t="b">
         <v>1</v>
       </c>
       <c r="M39">
@@ -3560,22 +3384,22 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>49.994999999999997</v>
+        <v>59.999000000000002</v>
       </c>
       <c r="C40">
-        <v>49.994999999999997</v>
+        <v>59.994</v>
       </c>
       <c r="D40">
         <v>30.152000000000001</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G40">
         <v>30</v>
@@ -3584,10 +3408,10 @@
         <v>37</v>
       </c>
       <c r="I40">
-        <v>10.88167612</v>
+        <v>7.393631976</v>
       </c>
       <c r="J40">
-        <v>10.877507196584199</v>
+        <v>7.3933932381221501</v>
       </c>
       <c r="K40" s="3" t="b">
         <v>1</v>
@@ -3608,13 +3432,13 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>55.2</v>
       </c>
       <c r="C41">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D41">
         <v>30</v>
@@ -3623,7 +3447,7 @@
         <v>55</v>
       </c>
       <c r="F41">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G41">
         <v>30</v>
@@ -3632,10 +3456,10 @@
         <v>38</v>
       </c>
       <c r="I41">
-        <v>7.1035505069999996</v>
+        <v>3.813163002</v>
       </c>
       <c r="J41">
-        <v>7.1030053222300298</v>
+        <v>3.8130579721003599</v>
       </c>
       <c r="K41" s="3" t="b">
         <v>1</v>
@@ -3656,22 +3480,22 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>59.997</v>
+        <v>49.994999999999997</v>
       </c>
       <c r="C42">
-        <v>49.994999999999997</v>
+        <v>9.9939999999999998</v>
       </c>
       <c r="D42">
         <v>30.152000000000001</v>
       </c>
       <c r="E42">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F42">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G42">
         <v>30</v>
@@ -3680,10 +3504,10 @@
         <v>39</v>
       </c>
       <c r="I42">
-        <v>7.393631976</v>
+        <v>10.88167612</v>
       </c>
       <c r="J42">
-        <v>7.3933932381221501</v>
+        <v>10.877507196584199</v>
       </c>
       <c r="K42" s="3" t="b">
         <v>1</v>
@@ -3704,22 +3528,22 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C43">
-        <v>55.2</v>
+        <v>4.8</v>
       </c>
       <c r="D43">
         <v>30</v>
       </c>
       <c r="E43">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F43">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G43">
         <v>30</v>
@@ -3728,10 +3552,10 @@
         <v>40</v>
       </c>
       <c r="I43">
-        <v>3.813163002</v>
+        <v>7.1035505069999996</v>
       </c>
       <c r="J43">
-        <v>3.8130579721003599</v>
+        <v>7.1030053222300298</v>
       </c>
       <c r="K43" s="3" t="b">
         <v>1</v>
@@ -3752,22 +3576,22 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>59.999000000000002</v>
+        <v>49.996000000000002</v>
       </c>
       <c r="C44">
-        <v>59.994</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D44">
         <v>30.152000000000001</v>
       </c>
       <c r="E44">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F44">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>30</v>
@@ -3800,13 +3624,13 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>55.2</v>
       </c>
       <c r="C45">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>30</v>
@@ -3815,7 +3639,7 @@
         <v>55</v>
       </c>
       <c r="F45">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>30</v>
@@ -3847,38 +3671,38 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>40</v>
-      </c>
-      <c r="B46">
-        <v>49.994999999999997</v>
-      </c>
-      <c r="C46">
-        <v>9.9939999999999998</v>
-      </c>
-      <c r="D46">
-        <v>30.152000000000001</v>
-      </c>
-      <c r="E46">
-        <v>50</v>
-      </c>
-      <c r="F46">
-        <v>10</v>
-      </c>
-      <c r="G46">
+      <c r="A46" s="5">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4">
+        <v>58.1</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
         <v>30</v>
       </c>
-      <c r="H46" t="s">
+      <c r="E46" s="4">
+        <v>60</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <v>30</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I46">
-        <v>10.88167612</v>
-      </c>
-      <c r="J46">
-        <v>10.877507196584199</v>
-      </c>
-      <c r="K46" s="3" t="b">
-        <v>1</v>
+      <c r="I46" s="4">
+        <v>7.393631976</v>
+      </c>
+      <c r="J46" s="4">
+        <v>3.8130579721003599</v>
+      </c>
+      <c r="K46" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -3891,15 +3715,15 @@
       </c>
       <c r="V46">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C47">
         <v>4.8</v>
@@ -3908,7 +3732,7 @@
         <v>30</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -3920,10 +3744,10 @@
         <v>44</v>
       </c>
       <c r="I47">
-        <v>7.1035505069999996</v>
+        <v>3.813163002</v>
       </c>
       <c r="J47">
-        <v>7.1030053222300298</v>
+        <v>3.8130579721003599</v>
       </c>
       <c r="K47" s="3" t="b">
         <v>1</v>
@@ -3944,22 +3768,22 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>49.996000000000002</v>
+        <v>59.996000000000002</v>
       </c>
       <c r="C48">
-        <v>-5.0000000000000001E-3</v>
+        <v>9.9939999999999998</v>
       </c>
       <c r="D48">
         <v>30.152000000000001</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>30</v>
@@ -3992,13 +3816,13 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>55.2</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>30</v>
@@ -4007,7 +3831,7 @@
         <v>55</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G49">
         <v>30</v>
@@ -4016,10 +3840,10 @@
         <v>46</v>
       </c>
       <c r="I49">
-        <v>3.813163002</v>
+        <v>7.1035505069999996</v>
       </c>
       <c r="J49">
-        <v>3.8130579721003599</v>
+        <v>7.1030053222300298</v>
       </c>
       <c r="K49" s="3" t="b">
         <v>1</v>
@@ -4039,290 +3863,103 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>44</v>
-      </c>
-      <c r="B50" s="4">
-        <v>58.1</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4">
-        <v>30</v>
-      </c>
-      <c r="E50" s="4">
-        <v>60</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4">
-        <v>30</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" s="4">
-        <v>7.393631976</v>
-      </c>
-      <c r="J50" s="4">
-        <v>3.8130579721003599</v>
-      </c>
-      <c r="K50" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50" t="b">
-        <v>1</v>
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
       </c>
       <c r="V50">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(V2:V49)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>45</v>
-      </c>
-      <c r="B51">
-        <v>60</v>
-      </c>
-      <c r="C51">
-        <v>4.8</v>
-      </c>
-      <c r="D51">
-        <v>30</v>
-      </c>
-      <c r="E51">
-        <v>60</v>
-      </c>
-      <c r="F51">
-        <v>5</v>
-      </c>
-      <c r="G51">
-        <v>30</v>
-      </c>
-      <c r="H51" t="s">
-        <v>48</v>
-      </c>
-      <c r="I51">
-        <v>3.813163002</v>
-      </c>
-      <c r="J51">
-        <v>3.8130579721003599</v>
-      </c>
-      <c r="K51" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51" t="b">
-        <v>1</v>
-      </c>
-      <c r="V51">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>46</v>
-      </c>
-      <c r="B52">
-        <v>59.996000000000002</v>
-      </c>
-      <c r="C52">
-        <v>9.9939999999999998</v>
-      </c>
-      <c r="D52">
-        <v>30.152000000000001</v>
-      </c>
-      <c r="E52">
-        <v>60</v>
-      </c>
-      <c r="F52">
-        <v>10</v>
-      </c>
-      <c r="G52">
-        <v>30</v>
-      </c>
-      <c r="H52" t="s">
-        <v>49</v>
-      </c>
-      <c r="I52">
-        <v>7.393631976</v>
-      </c>
-      <c r="J52">
-        <v>7.3933932381221501</v>
-      </c>
-      <c r="K52" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52" t="b">
-        <v>1</v>
-      </c>
-      <c r="V52">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="C54" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="D54" s="4">
+        <v>10</v>
+      </c>
+      <c r="E54" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="F54" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="G54" s="4">
+        <v>10</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B53">
-        <v>55.2</v>
-      </c>
-      <c r="C53">
-        <v>10</v>
-      </c>
-      <c r="D53">
-        <v>30</v>
-      </c>
-      <c r="E53">
-        <v>55</v>
-      </c>
-      <c r="F53">
-        <v>10</v>
-      </c>
-      <c r="G53">
-        <v>30</v>
-      </c>
-      <c r="H53" t="s">
-        <v>50</v>
-      </c>
-      <c r="I53">
-        <v>7.1035505069999996</v>
-      </c>
-      <c r="J53">
-        <v>7.1030053222300298</v>
-      </c>
-      <c r="K53" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53" t="b">
-        <v>1</v>
-      </c>
-      <c r="V53">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>48</v>
-      </c>
-      <c r="B54" t="s">
-        <v>69</v>
-      </c>
-      <c r="V54">
-        <f>SUM(V2:V53)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>49</v>
-      </c>
-      <c r="B55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>50</v>
-      </c>
-      <c r="B56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>51</v>
-      </c>
-      <c r="B57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>52</v>
-      </c>
-      <c r="B58" s="4">
-        <v>13.7</v>
-      </c>
-      <c r="C58" s="4">
-        <v>10.7</v>
-      </c>
-      <c r="D58" s="4">
-        <v>10</v>
-      </c>
-      <c r="E58" s="4">
-        <v>13.7</v>
-      </c>
-      <c r="F58" s="4">
-        <v>10.7</v>
-      </c>
-      <c r="G58" s="4">
-        <v>10</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I58" s="4">
+      <c r="I54" s="4">
         <v>1.341894991</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J54" s="4">
         <v>0</v>
       </c>
-      <c r="K58" s="4" t="b">
+      <c r="K54" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="L58">
+      <c r="L54">
         <v>21</v>
       </c>
-      <c r="M58">
+      <c r="M54">
         <v>0</v>
       </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58" t="b">
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="b">
         <v>0</v>
       </c>
-      <c r="S58" t="e">
-        <f>0.9*((R58-D58)^0.51)*((SQRT((P58-B58)^2+(Q58-C58)^2)^(-0.35)))</f>
+      <c r="S54" t="e">
+        <f>0.9*((R54-D54)^0.51)*((SQRT((P54-B54)^2+(Q54-C54)^2)^(-0.35)))</f>
         <v>#NUM!</v>
       </c>
-      <c r="T58" t="b">
-        <f>IF(M58=0,TRUE,OR(AND(S58&lt;(M58*1.03),S58&gt;(M58*0.97)),O58))</f>
+      <c r="T54" t="b">
+        <f>IF(M54=0,TRUE,OR(AND(S54&lt;(M54*1.03),S54&gt;(M54*0.97)),O54))</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -4333,29 +3970,14 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="K58 O58 T58 K3:K53 O3:O53">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+  <conditionalFormatting sqref="K54 O54 T54 K3:K49 O3:O49">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K53">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O53">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T53">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="K3:K49 O3:O49 T3:T49">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
